--- a/medicine/Pharmacie/Poly(styrène_sulfonate)_de_sodium/Poly(styrène_sulfonate)_de_sodium.xlsx
+++ b/medicine/Pharmacie/Poly(styrène_sulfonate)_de_sodium/Poly(styrène_sulfonate)_de_sodium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Poly(styr%C3%A8ne_sulfonate)_de_sodium</t>
+          <t>Poly(styrène_sulfonate)_de_sodium</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 On appelle poly(styrène sulfonate) de sodium ou polystyrène sulfonate de sodium, abrégé en PSS, un polymère substitué du polystyrène dans lequel un groupe sulfonate –SO3− est fixé sur chaque atome de carbone no 4 du groupe phényle des unités styrène, une fraction desquels porte un ion sodium Na+. Il se présente sous l'aspect d'un solide ou d'une poudre blanche, très soluble dans l'eau.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Poly(styr%C3%A8ne_sulfonate)_de_sodium</t>
+          <t>Poly(styrène_sulfonate)_de_sodium</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,9 +527,11 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est utilisé comme échangeur d'ions (potassium contre sodium) en cas d'hyperkaliémie[3]. Il peut être donné par voie orale ou en lavement. Il peut provoquer des ulcères du côlon[4] ainsi qu'une hypernatrémie[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est utilisé comme échangeur d'ions (potassium contre sodium) en cas d'hyperkaliémie. Il peut être donné par voie orale ou en lavement. Il peut provoquer des ulcères du côlon ainsi qu'une hypernatrémie.
 </t>
         </is>
       </c>
